--- a/user-data/in-oof-and-repayments/in-oof-and-repayments.xlsx
+++ b/user-data/in-oof-and-repayments/in-oof-and-repayments.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
   <si>
     <t>id</t>
   </si>
@@ -1179,9 +1179,6 @@
     <t>Source: Development Initiatives based on OECD-DAC data</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1561,22 +1558,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11">
@@ -1592,11 +1589,6 @@
     <row r="13">
       <c r="A13" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/in-oof-and-repayments/in-oof-and-repayments.xlsx
+++ b/user-data/in-oof-and-repayments/in-oof-and-repayments.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
   <si>
     <t>id</t>
   </si>
@@ -1188,7 +1188,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1591,6 +1594,11 @@
         <v>393</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>394</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/in-oof-and-repayments/in-oof-and-repayments.xlsx
+++ b/user-data/in-oof-and-repayments/in-oof-and-repayments.xlsx
@@ -78,7 +78,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -180,7 +180,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -211,12 +211,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -301,6 +295,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -870,7 +870,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -882,7 +882,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1056,7 +1056,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1080,7 +1080,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1140,7 +1140,7 @@
     <t>WF</t>
   </si>
   <si>
-    <t>Wallis and Futuna</t>
+    <t>Wallis &amp; Futuna</t>
   </si>
   <si>
     <t>west-indies</t>
@@ -1197,7 +1197,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -10044,13 +10044,13 @@
         <v>2000</v>
       </c>
       <c r="D422" t="n">
-        <v>65720000</v>
+        <v>730000</v>
       </c>
       <c r="E422" t="n">
-        <v>180790000</v>
+        <v>1140000</v>
       </c>
       <c r="F422" t="n">
-        <v>120330000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="423">
@@ -10064,13 +10064,13 @@
         <v>2001</v>
       </c>
       <c r="D423" t="n">
-        <v>31240000</v>
+        <v>730000</v>
       </c>
       <c r="E423" t="n">
-        <v>200950000</v>
+        <v>0</v>
       </c>
       <c r="F423" t="n">
-        <v>102580000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -10084,13 +10084,13 @@
         <v>2002</v>
       </c>
       <c r="D424" t="n">
-        <v>686140000</v>
+        <v>5500000</v>
       </c>
       <c r="E424" t="n">
-        <v>503170000</v>
+        <v>0</v>
       </c>
       <c r="F424" t="n">
-        <v>203010000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="425">
@@ -10104,13 +10104,13 @@
         <v>2003</v>
       </c>
       <c r="D425" t="n">
-        <v>59300000</v>
+        <v>1600000</v>
       </c>
       <c r="E425" t="n">
-        <v>262390000</v>
+        <v>30000</v>
       </c>
       <c r="F425" t="n">
-        <v>81880000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="426">
@@ -10124,13 +10124,13 @@
         <v>2004</v>
       </c>
       <c r="D426" t="n">
-        <v>23840000</v>
+        <v>7750000</v>
       </c>
       <c r="E426" t="n">
-        <v>121810000</v>
+        <v>490000</v>
       </c>
       <c r="F426" t="n">
-        <v>44490000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="427">
@@ -10144,13 +10144,13 @@
         <v>2005</v>
       </c>
       <c r="D427" t="n">
-        <v>0</v>
+        <v>24970000</v>
       </c>
       <c r="E427" t="n">
-        <v>17910000</v>
+        <v>6050000</v>
       </c>
       <c r="F427" t="n">
-        <v>4730000</v>
+        <v>1760000</v>
       </c>
     </row>
     <row r="428">
@@ -10164,13 +10164,13 @@
         <v>2006</v>
       </c>
       <c r="D428" t="n">
-        <v>0</v>
+        <v>9020000</v>
       </c>
       <c r="E428" t="n">
-        <v>16740000</v>
+        <v>6600000</v>
       </c>
       <c r="F428" t="n">
-        <v>5790000</v>
+        <v>3390000</v>
       </c>
     </row>
     <row r="429">
@@ -10184,13 +10184,13 @@
         <v>2007</v>
       </c>
       <c r="D429" t="n">
-        <v>0</v>
+        <v>5420000</v>
       </c>
       <c r="E429" t="n">
-        <v>90860000</v>
+        <v>14720000</v>
       </c>
       <c r="F429" t="n">
-        <v>35800000</v>
+        <v>3470000</v>
       </c>
     </row>
     <row r="430">
@@ -10204,13 +10204,13 @@
         <v>2008</v>
       </c>
       <c r="D430" t="n">
-        <v>244560000</v>
+        <v>39210000</v>
       </c>
       <c r="E430" t="n">
-        <v>671360000</v>
+        <v>11980000</v>
       </c>
       <c r="F430" t="n">
-        <v>156430000</v>
+        <v>2410000</v>
       </c>
     </row>
     <row r="431">
@@ -10224,13 +10224,13 @@
         <v>2009</v>
       </c>
       <c r="D431" t="n">
-        <v>167620000</v>
+        <v>38610000</v>
       </c>
       <c r="E431" t="n">
-        <v>929230000</v>
+        <v>46860000</v>
       </c>
       <c r="F431" t="n">
-        <v>520010000</v>
+        <v>3430000</v>
       </c>
     </row>
     <row r="432">
@@ -10244,13 +10244,13 @@
         <v>2010</v>
       </c>
       <c r="D432" t="n">
-        <v>52200000</v>
+        <v>9200000</v>
       </c>
       <c r="E432" t="n">
-        <v>130870000</v>
+        <v>10150000</v>
       </c>
       <c r="F432" t="n">
-        <v>71850000</v>
+        <v>1490000</v>
       </c>
     </row>
     <row r="433">
@@ -10264,13 +10264,13 @@
         <v>2011</v>
       </c>
       <c r="D433" t="n">
-        <v>19450000</v>
+        <v>35920000</v>
       </c>
       <c r="E433" t="n">
-        <v>72330000</v>
+        <v>19310000</v>
       </c>
       <c r="F433" t="n">
-        <v>20180000</v>
+        <v>1580000</v>
       </c>
     </row>
     <row r="434">
@@ -10284,13 +10284,13 @@
         <v>2012</v>
       </c>
       <c r="D434" t="n">
-        <v>51380000</v>
+        <v>67480000</v>
       </c>
       <c r="E434" t="n">
-        <v>1469740000</v>
+        <v>28600000</v>
       </c>
       <c r="F434" t="n">
-        <v>-7720000</v>
+        <v>8570000</v>
       </c>
     </row>
     <row r="435">
@@ -10304,13 +10304,13 @@
         <v>2013</v>
       </c>
       <c r="D435" t="n">
-        <v>86510000</v>
+        <v>123540000</v>
       </c>
       <c r="E435" t="n">
-        <v>236470000</v>
+        <v>39870000</v>
       </c>
       <c r="F435" t="n">
-        <v>20980000</v>
+        <v>12560000</v>
       </c>
     </row>
     <row r="436">
@@ -10324,13 +10324,13 @@
         <v>2000</v>
       </c>
       <c r="D436" t="n">
-        <v>730000</v>
+        <v>135030000</v>
       </c>
       <c r="E436" t="n">
-        <v>1140000</v>
+        <v>243700000</v>
       </c>
       <c r="F436" t="n">
-        <v>40000</v>
+        <v>97300000</v>
       </c>
     </row>
     <row r="437">
@@ -10344,13 +10344,13 @@
         <v>2001</v>
       </c>
       <c r="D437" t="n">
-        <v>730000</v>
+        <v>87010000</v>
       </c>
       <c r="E437" t="n">
-        <v>0</v>
+        <v>308410000</v>
       </c>
       <c r="F437" t="n">
-        <v>0</v>
+        <v>105230000</v>
       </c>
     </row>
     <row r="438">
@@ -10364,13 +10364,13 @@
         <v>2002</v>
       </c>
       <c r="D438" t="n">
-        <v>5500000</v>
+        <v>636900000</v>
       </c>
       <c r="E438" t="n">
-        <v>0</v>
+        <v>367490000</v>
       </c>
       <c r="F438" t="n">
-        <v>30000</v>
+        <v>64440000</v>
       </c>
     </row>
     <row r="439">
@@ -10384,13 +10384,13 @@
         <v>2003</v>
       </c>
       <c r="D439" t="n">
-        <v>1600000</v>
+        <v>141210000</v>
       </c>
       <c r="E439" t="n">
-        <v>30000</v>
+        <v>714950000</v>
       </c>
       <c r="F439" t="n">
-        <v>200000</v>
+        <v>46520000</v>
       </c>
     </row>
     <row r="440">
@@ -10404,13 +10404,13 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v>7750000</v>
+        <v>28270000</v>
       </c>
       <c r="E440" t="n">
-        <v>490000</v>
+        <v>397960000</v>
       </c>
       <c r="F440" t="n">
-        <v>550000</v>
+        <v>38580000</v>
       </c>
     </row>
     <row r="441">
@@ -10424,13 +10424,13 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>24970000</v>
+        <v>141540000</v>
       </c>
       <c r="E441" t="n">
-        <v>6050000</v>
+        <v>255450000</v>
       </c>
       <c r="F441" t="n">
-        <v>1760000</v>
+        <v>35760000</v>
       </c>
     </row>
     <row r="442">
@@ -10444,13 +10444,13 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>9020000</v>
+        <v>80100000</v>
       </c>
       <c r="E442" t="n">
-        <v>6600000</v>
+        <v>1198160000</v>
       </c>
       <c r="F442" t="n">
-        <v>3390000</v>
+        <v>216770000</v>
       </c>
     </row>
     <row r="443">
@@ -10464,13 +10464,13 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>5420000</v>
+        <v>115500000</v>
       </c>
       <c r="E443" t="n">
-        <v>14720000</v>
+        <v>1288260000</v>
       </c>
       <c r="F443" t="n">
-        <v>3470000</v>
+        <v>30440000</v>
       </c>
     </row>
     <row r="444">
@@ -10484,13 +10484,13 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>39210000</v>
+        <v>2130000</v>
       </c>
       <c r="E444" t="n">
-        <v>11980000</v>
+        <v>63520000</v>
       </c>
       <c r="F444" t="n">
-        <v>2410000</v>
+        <v>36010000</v>
       </c>
     </row>
     <row r="445">
@@ -10504,13 +10504,13 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>38610000</v>
+        <v>143890000</v>
       </c>
       <c r="E445" t="n">
-        <v>46860000</v>
+        <v>79210000</v>
       </c>
       <c r="F445" t="n">
-        <v>3430000</v>
+        <v>20920000</v>
       </c>
     </row>
     <row r="446">
@@ -10524,13 +10524,13 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>9200000</v>
+        <v>77020000</v>
       </c>
       <c r="E446" t="n">
-        <v>10150000</v>
+        <v>45790000</v>
       </c>
       <c r="F446" t="n">
-        <v>1490000</v>
+        <v>18050000</v>
       </c>
     </row>
     <row r="447">
@@ -10544,13 +10544,13 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v>35920000</v>
+        <v>68530000</v>
       </c>
       <c r="E447" t="n">
-        <v>19310000</v>
+        <v>79330000</v>
       </c>
       <c r="F447" t="n">
-        <v>1580000</v>
+        <v>23910000</v>
       </c>
     </row>
     <row r="448">
@@ -10564,13 +10564,13 @@
         <v>2012</v>
       </c>
       <c r="D448" t="n">
-        <v>67480000</v>
+        <v>107890000</v>
       </c>
       <c r="E448" t="n">
-        <v>28600000</v>
+        <v>56260000</v>
       </c>
       <c r="F448" t="n">
-        <v>8570000</v>
+        <v>27990000</v>
       </c>
     </row>
     <row r="449">
@@ -10584,13 +10584,13 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v>123540000</v>
+        <v>46070000</v>
       </c>
       <c r="E449" t="n">
-        <v>39870000</v>
+        <v>104360000</v>
       </c>
       <c r="F449" t="n">
-        <v>12560000</v>
+        <v>75960000</v>
       </c>
     </row>
     <row r="450">
@@ -10604,13 +10604,13 @@
         <v>2000</v>
       </c>
       <c r="D450" t="n">
-        <v>135030000</v>
+        <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>243700000</v>
+        <v>2400000</v>
       </c>
       <c r="F450" t="n">
-        <v>97300000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="451">
@@ -10624,13 +10624,13 @@
         <v>2001</v>
       </c>
       <c r="D451" t="n">
-        <v>87010000</v>
+        <v>70000</v>
       </c>
       <c r="E451" t="n">
-        <v>308410000</v>
+        <v>1230000</v>
       </c>
       <c r="F451" t="n">
-        <v>105230000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="452">
@@ -10644,13 +10644,13 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v>636900000</v>
+        <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>367490000</v>
+        <v>490000</v>
       </c>
       <c r="F452" t="n">
-        <v>64440000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="453">
@@ -10664,13 +10664,13 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v>141210000</v>
+        <v>-200000</v>
       </c>
       <c r="E453" t="n">
-        <v>714950000</v>
+        <v>390000</v>
       </c>
       <c r="F453" t="n">
-        <v>46520000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="454">
@@ -10684,13 +10684,13 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>28270000</v>
+        <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>397960000</v>
+        <v>110000</v>
       </c>
       <c r="F454" t="n">
-        <v>38580000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="455">
@@ -10704,13 +10704,13 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v>141540000</v>
+        <v>7860000</v>
       </c>
       <c r="E455" t="n">
-        <v>255450000</v>
+        <v>0</v>
       </c>
       <c r="F455" t="n">
-        <v>35760000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="456">
@@ -10724,13 +10724,13 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>80100000</v>
+        <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>1198160000</v>
+        <v>1160000</v>
       </c>
       <c r="F456" t="n">
-        <v>216770000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -10744,13 +10744,13 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v>115500000</v>
+        <v>0</v>
       </c>
       <c r="E457" t="n">
-        <v>1288260000</v>
+        <v>2820000</v>
       </c>
       <c r="F457" t="n">
-        <v>30440000</v>
+        <v>1880000</v>
       </c>
     </row>
     <row r="458">
@@ -10764,13 +10764,13 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>2130000</v>
+        <v>6100000</v>
       </c>
       <c r="E458" t="n">
-        <v>63520000</v>
+        <v>5040000</v>
       </c>
       <c r="F458" t="n">
-        <v>36010000</v>
+        <v>1760000</v>
       </c>
     </row>
     <row r="459">
@@ -10784,13 +10784,13 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v>143890000</v>
+        <v>40610000</v>
       </c>
       <c r="E459" t="n">
-        <v>79210000</v>
+        <v>5170000</v>
       </c>
       <c r="F459" t="n">
-        <v>20920000</v>
+        <v>1830000</v>
       </c>
     </row>
     <row r="460">
@@ -10804,13 +10804,13 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>77020000</v>
+        <v>29400000</v>
       </c>
       <c r="E460" t="n">
-        <v>45790000</v>
+        <v>6050000</v>
       </c>
       <c r="F460" t="n">
-        <v>18050000</v>
+        <v>1510000</v>
       </c>
     </row>
     <row r="461">
@@ -10824,13 +10824,13 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v>68530000</v>
+        <v>90360000</v>
       </c>
       <c r="E461" t="n">
-        <v>79330000</v>
+        <v>930000</v>
       </c>
       <c r="F461" t="n">
-        <v>23910000</v>
+        <v>990000</v>
       </c>
     </row>
     <row r="462">
@@ -10844,13 +10844,13 @@
         <v>2012</v>
       </c>
       <c r="D462" t="n">
-        <v>107890000</v>
+        <v>16860000</v>
       </c>
       <c r="E462" t="n">
-        <v>56260000</v>
+        <v>5030000</v>
       </c>
       <c r="F462" t="n">
-        <v>27990000</v>
+        <v>6780000</v>
       </c>
     </row>
     <row r="463">
@@ -10864,13 +10864,13 @@
         <v>2013</v>
       </c>
       <c r="D463" t="n">
-        <v>46070000</v>
+        <v>43400000</v>
       </c>
       <c r="E463" t="n">
-        <v>104360000</v>
+        <v>3290000</v>
       </c>
       <c r="F463" t="n">
-        <v>75960000</v>
+        <v>6220000</v>
       </c>
     </row>
     <row r="464">
@@ -10884,13 +10884,13 @@
         <v>2000</v>
       </c>
       <c r="D464" t="n">
-        <v>0</v>
+        <v>1490000</v>
       </c>
       <c r="E464" t="n">
-        <v>2400000</v>
+        <v>3850000</v>
       </c>
       <c r="F464" t="n">
-        <v>260000</v>
+        <v>1610000</v>
       </c>
     </row>
     <row r="465">
@@ -10904,13 +10904,13 @@
         <v>2001</v>
       </c>
       <c r="D465" t="n">
-        <v>70000</v>
+        <v>1790000</v>
       </c>
       <c r="E465" t="n">
-        <v>1230000</v>
+        <v>2330000</v>
       </c>
       <c r="F465" t="n">
-        <v>380000</v>
+        <v>530000</v>
       </c>
     </row>
     <row r="466">
@@ -10927,10 +10927,10 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>490000</v>
+        <v>920000</v>
       </c>
       <c r="F466" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="467">
@@ -10944,13 +10944,13 @@
         <v>2003</v>
       </c>
       <c r="D467" t="n">
-        <v>-200000</v>
+        <v>0</v>
       </c>
       <c r="E467" t="n">
-        <v>390000</v>
+        <v>130000</v>
       </c>
       <c r="F467" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="468">
@@ -10967,10 +10967,10 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="F468" t="n">
-        <v>90000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -10984,13 +10984,13 @@
         <v>2005</v>
       </c>
       <c r="D469" t="n">
-        <v>7860000</v>
+        <v>0</v>
       </c>
       <c r="E469" t="n">
         <v>0</v>
       </c>
       <c r="F469" t="n">
-        <v>230000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -11004,13 +11004,13 @@
         <v>2006</v>
       </c>
       <c r="D470" t="n">
-        <v>0</v>
+        <v>68490000</v>
       </c>
       <c r="E470" t="n">
-        <v>1160000</v>
+        <v>67640000</v>
       </c>
       <c r="F470" t="n">
-        <v>0</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="471">
@@ -11027,10 +11027,10 @@
         <v>0</v>
       </c>
       <c r="E471" t="n">
-        <v>2820000</v>
+        <v>4300000</v>
       </c>
       <c r="F471" t="n">
-        <v>1880000</v>
+        <v>3770000</v>
       </c>
     </row>
     <row r="472">
@@ -11044,13 +11044,13 @@
         <v>2008</v>
       </c>
       <c r="D472" t="n">
-        <v>6100000</v>
+        <v>3530000</v>
       </c>
       <c r="E472" t="n">
-        <v>5040000</v>
+        <v>4190000</v>
       </c>
       <c r="F472" t="n">
-        <v>1760000</v>
+        <v>5170000</v>
       </c>
     </row>
     <row r="473">
@@ -11064,13 +11064,13 @@
         <v>2009</v>
       </c>
       <c r="D473" t="n">
-        <v>40610000</v>
+        <v>0</v>
       </c>
       <c r="E473" t="n">
-        <v>5170000</v>
+        <v>1240000</v>
       </c>
       <c r="F473" t="n">
-        <v>1830000</v>
+        <v>1220000</v>
       </c>
     </row>
     <row r="474">
@@ -11084,13 +11084,13 @@
         <v>2010</v>
       </c>
       <c r="D474" t="n">
-        <v>29400000</v>
+        <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>6050000</v>
+        <v>21600000</v>
       </c>
       <c r="F474" t="n">
-        <v>1510000</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="475">
@@ -11104,13 +11104,13 @@
         <v>2011</v>
       </c>
       <c r="D475" t="n">
-        <v>90360000</v>
+        <v>3080000</v>
       </c>
       <c r="E475" t="n">
-        <v>930000</v>
+        <v>860000</v>
       </c>
       <c r="F475" t="n">
-        <v>990000</v>
+        <v>2410000</v>
       </c>
     </row>
     <row r="476">
@@ -11124,13 +11124,13 @@
         <v>2012</v>
       </c>
       <c r="D476" t="n">
-        <v>16860000</v>
+        <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>5030000</v>
+        <v>0</v>
       </c>
       <c r="F476" t="n">
-        <v>6780000</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="477">
@@ -11144,13 +11144,13 @@
         <v>2013</v>
       </c>
       <c r="D477" t="n">
-        <v>43400000</v>
+        <v>0</v>
       </c>
       <c r="E477" t="n">
-        <v>3290000</v>
+        <v>0</v>
       </c>
       <c r="F477" t="n">
-        <v>6220000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="478">
@@ -11164,13 +11164,13 @@
         <v>2000</v>
       </c>
       <c r="D478" t="n">
-        <v>1490000</v>
+        <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>3850000</v>
+        <v>0</v>
       </c>
       <c r="F478" t="n">
-        <v>1610000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -11184,13 +11184,13 @@
         <v>2001</v>
       </c>
       <c r="D479" t="n">
-        <v>1790000</v>
+        <v>0</v>
       </c>
       <c r="E479" t="n">
-        <v>2330000</v>
+        <v>0</v>
       </c>
       <c r="F479" t="n">
-        <v>530000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -11207,10 +11207,10 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>920000</v>
+        <v>0</v>
       </c>
       <c r="F480" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -11227,10 +11227,10 @@
         <v>0</v>
       </c>
       <c r="E481" t="n">
-        <v>130000</v>
+        <v>0</v>
       </c>
       <c r="F481" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -11284,13 +11284,13 @@
         <v>2006</v>
       </c>
       <c r="D484" t="n">
-        <v>68490000</v>
+        <v>0</v>
       </c>
       <c r="E484" t="n">
-        <v>67640000</v>
+        <v>0</v>
       </c>
       <c r="F484" t="n">
-        <v>260000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -11307,10 +11307,10 @@
         <v>0</v>
       </c>
       <c r="E485" t="n">
-        <v>4300000</v>
+        <v>0</v>
       </c>
       <c r="F485" t="n">
-        <v>3770000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -11324,13 +11324,13 @@
         <v>2008</v>
       </c>
       <c r="D486" t="n">
-        <v>3530000</v>
+        <v>0</v>
       </c>
       <c r="E486" t="n">
-        <v>4190000</v>
+        <v>0</v>
       </c>
       <c r="F486" t="n">
-        <v>5170000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -11347,10 +11347,10 @@
         <v>0</v>
       </c>
       <c r="E487" t="n">
-        <v>1240000</v>
+        <v>0</v>
       </c>
       <c r="F487" t="n">
-        <v>1220000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -11367,10 +11367,10 @@
         <v>0</v>
       </c>
       <c r="E488" t="n">
-        <v>21600000</v>
+        <v>0</v>
       </c>
       <c r="F488" t="n">
-        <v>1020000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -11384,13 +11384,13 @@
         <v>2011</v>
       </c>
       <c r="D489" t="n">
-        <v>3080000</v>
+        <v>0</v>
       </c>
       <c r="E489" t="n">
-        <v>860000</v>
+        <v>0</v>
       </c>
       <c r="F489" t="n">
-        <v>2410000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="F490" t="n">
-        <v>190000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -11430,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="F491" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -11584,7 +11584,7 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>0</v>
+        <v>880000</v>
       </c>
       <c r="E499" t="n">
         <v>0</v>
@@ -11664,13 +11664,13 @@
         <v>2011</v>
       </c>
       <c r="D503" t="n">
-        <v>0</v>
+        <v>29280000</v>
       </c>
       <c r="E503" t="n">
         <v>0</v>
       </c>
       <c r="F503" t="n">
-        <v>0</v>
+        <v>560000</v>
       </c>
     </row>
     <row r="504">
@@ -11684,13 +11684,13 @@
         <v>2012</v>
       </c>
       <c r="D504" t="n">
-        <v>0</v>
+        <v>45000000</v>
       </c>
       <c r="E504" t="n">
         <v>0</v>
       </c>
       <c r="F504" t="n">
-        <v>0</v>
+        <v>1860000</v>
       </c>
     </row>
     <row r="505">
@@ -11727,10 +11727,10 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>0</v>
+        <v>1610000</v>
       </c>
       <c r="F506" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="507">
@@ -11744,13 +11744,13 @@
         <v>2001</v>
       </c>
       <c r="D507" t="n">
-        <v>0</v>
+        <v>17000000</v>
       </c>
       <c r="E507" t="n">
-        <v>0</v>
+        <v>470000</v>
       </c>
       <c r="F507" t="n">
-        <v>0</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="508">
@@ -11764,13 +11764,13 @@
         <v>2002</v>
       </c>
       <c r="D508" t="n">
-        <v>0</v>
+        <v>13300000</v>
       </c>
       <c r="E508" t="n">
-        <v>0</v>
+        <v>2700000</v>
       </c>
       <c r="F508" t="n">
-        <v>0</v>
+        <v>880000</v>
       </c>
     </row>
     <row r="509">
@@ -11784,13 +11784,13 @@
         <v>2003</v>
       </c>
       <c r="D509" t="n">
-        <v>0</v>
+        <v>40320000</v>
       </c>
       <c r="E509" t="n">
-        <v>0</v>
+        <v>10360000</v>
       </c>
       <c r="F509" t="n">
-        <v>0</v>
+        <v>1210000</v>
       </c>
     </row>
     <row r="510">
@@ -11804,13 +11804,13 @@
         <v>2004</v>
       </c>
       <c r="D510" t="n">
-        <v>0</v>
+        <v>8800000</v>
       </c>
       <c r="E510" t="n">
-        <v>0</v>
+        <v>2220000</v>
       </c>
       <c r="F510" t="n">
-        <v>0</v>
+        <v>1680000</v>
       </c>
     </row>
     <row r="511">
@@ -11824,13 +11824,13 @@
         <v>2005</v>
       </c>
       <c r="D511" t="n">
-        <v>0</v>
+        <v>640000</v>
       </c>
       <c r="E511" t="n">
-        <v>0</v>
+        <v>6100000</v>
       </c>
       <c r="F511" t="n">
-        <v>0</v>
+        <v>2530000</v>
       </c>
     </row>
     <row r="512">
@@ -11847,10 +11847,10 @@
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>0</v>
+        <v>12390000</v>
       </c>
       <c r="F512" t="n">
-        <v>0</v>
+        <v>3320000</v>
       </c>
     </row>
     <row r="513">
@@ -11864,13 +11864,13 @@
         <v>2007</v>
       </c>
       <c r="D513" t="n">
-        <v>880000</v>
+        <v>11030000</v>
       </c>
       <c r="E513" t="n">
-        <v>0</v>
+        <v>8130000</v>
       </c>
       <c r="F513" t="n">
-        <v>0</v>
+        <v>8160000</v>
       </c>
     </row>
     <row r="514">
@@ -11884,13 +11884,13 @@
         <v>2008</v>
       </c>
       <c r="D514" t="n">
-        <v>0</v>
+        <v>4040000</v>
       </c>
       <c r="E514" t="n">
-        <v>0</v>
+        <v>31030000</v>
       </c>
       <c r="F514" t="n">
-        <v>0</v>
+        <v>2680000</v>
       </c>
     </row>
     <row r="515">
@@ -11907,10 +11907,10 @@
         <v>0</v>
       </c>
       <c r="E515" t="n">
-        <v>0</v>
+        <v>6820000</v>
       </c>
       <c r="F515" t="n">
-        <v>0</v>
+        <v>410000</v>
       </c>
     </row>
     <row r="516">
@@ -11924,13 +11924,13 @@
         <v>2010</v>
       </c>
       <c r="D516" t="n">
-        <v>0</v>
+        <v>45420000</v>
       </c>
       <c r="E516" t="n">
-        <v>0</v>
+        <v>10990000</v>
       </c>
       <c r="F516" t="n">
-        <v>0</v>
+        <v>1540000</v>
       </c>
     </row>
     <row r="517">
@@ -11944,13 +11944,13 @@
         <v>2011</v>
       </c>
       <c r="D517" t="n">
-        <v>29280000</v>
+        <v>20510000</v>
       </c>
       <c r="E517" t="n">
-        <v>0</v>
+        <v>5590000</v>
       </c>
       <c r="F517" t="n">
-        <v>560000</v>
+        <v>2190000</v>
       </c>
     </row>
     <row r="518">
@@ -11964,13 +11964,13 @@
         <v>2012</v>
       </c>
       <c r="D518" t="n">
-        <v>45000000</v>
+        <v>36230000</v>
       </c>
       <c r="E518" t="n">
-        <v>0</v>
+        <v>10070000</v>
       </c>
       <c r="F518" t="n">
-        <v>1860000</v>
+        <v>5500000</v>
       </c>
     </row>
     <row r="519">
@@ -11984,13 +11984,13 @@
         <v>2013</v>
       </c>
       <c r="D519" t="n">
-        <v>0</v>
+        <v>470000</v>
       </c>
       <c r="E519" t="n">
-        <v>0</v>
+        <v>2360000</v>
       </c>
       <c r="F519" t="n">
-        <v>0</v>
+        <v>3110000</v>
       </c>
     </row>
     <row r="520">
@@ -12004,13 +12004,13 @@
         <v>2000</v>
       </c>
       <c r="D520" t="n">
-        <v>0</v>
+        <v>271550000</v>
       </c>
       <c r="E520" t="n">
-        <v>1610000</v>
+        <v>664560000</v>
       </c>
       <c r="F520" t="n">
-        <v>30000</v>
+        <v>192710000</v>
       </c>
     </row>
     <row r="521">
@@ -12024,13 +12024,13 @@
         <v>2001</v>
       </c>
       <c r="D521" t="n">
-        <v>17000000</v>
+        <v>703780000</v>
       </c>
       <c r="E521" t="n">
-        <v>470000</v>
+        <v>607560000</v>
       </c>
       <c r="F521" t="n">
-        <v>1600000</v>
+        <v>220440000</v>
       </c>
     </row>
     <row r="522">
@@ -12044,13 +12044,13 @@
         <v>2002</v>
       </c>
       <c r="D522" t="n">
-        <v>13300000</v>
+        <v>406660000</v>
       </c>
       <c r="E522" t="n">
-        <v>2700000</v>
+        <v>935180000</v>
       </c>
       <c r="F522" t="n">
-        <v>880000</v>
+        <v>152520000</v>
       </c>
     </row>
     <row r="523">
@@ -12064,13 +12064,13 @@
         <v>2003</v>
       </c>
       <c r="D523" t="n">
-        <v>40320000</v>
+        <v>504300000</v>
       </c>
       <c r="E523" t="n">
-        <v>10360000</v>
+        <v>595830000</v>
       </c>
       <c r="F523" t="n">
-        <v>1210000</v>
+        <v>107680000</v>
       </c>
     </row>
     <row r="524">
@@ -12084,13 +12084,13 @@
         <v>2004</v>
       </c>
       <c r="D524" t="n">
-        <v>8800000</v>
+        <v>806800000</v>
       </c>
       <c r="E524" t="n">
-        <v>2220000</v>
+        <v>1362950000</v>
       </c>
       <c r="F524" t="n">
-        <v>1680000</v>
+        <v>78020000</v>
       </c>
     </row>
     <row r="525">
@@ -12104,13 +12104,13 @@
         <v>2005</v>
       </c>
       <c r="D525" t="n">
-        <v>640000</v>
+        <v>467400000</v>
       </c>
       <c r="E525" t="n">
-        <v>6100000</v>
+        <v>621150000</v>
       </c>
       <c r="F525" t="n">
-        <v>2530000</v>
+        <v>88900000</v>
       </c>
     </row>
     <row r="526">
@@ -12124,13 +12124,13 @@
         <v>2006</v>
       </c>
       <c r="D526" t="n">
-        <v>0</v>
+        <v>366430000</v>
       </c>
       <c r="E526" t="n">
-        <v>12390000</v>
+        <v>313470000</v>
       </c>
       <c r="F526" t="n">
-        <v>3320000</v>
+        <v>89490000</v>
       </c>
     </row>
     <row r="527">
@@ -12144,13 +12144,13 @@
         <v>2007</v>
       </c>
       <c r="D527" t="n">
-        <v>11030000</v>
+        <v>288930000</v>
       </c>
       <c r="E527" t="n">
-        <v>8130000</v>
+        <v>395630000</v>
       </c>
       <c r="F527" t="n">
-        <v>8160000</v>
+        <v>63370000</v>
       </c>
     </row>
     <row r="528">
@@ -12164,13 +12164,13 @@
         <v>2008</v>
       </c>
       <c r="D528" t="n">
-        <v>4040000</v>
+        <v>1057750000</v>
       </c>
       <c r="E528" t="n">
-        <v>31030000</v>
+        <v>591500000</v>
       </c>
       <c r="F528" t="n">
-        <v>2680000</v>
+        <v>88920000</v>
       </c>
     </row>
     <row r="529">
@@ -12184,13 +12184,13 @@
         <v>2009</v>
       </c>
       <c r="D529" t="n">
-        <v>0</v>
+        <v>1880990000</v>
       </c>
       <c r="E529" t="n">
-        <v>6820000</v>
+        <v>1002680000</v>
       </c>
       <c r="F529" t="n">
-        <v>410000</v>
+        <v>90050000</v>
       </c>
     </row>
     <row r="530">
@@ -12204,13 +12204,13 @@
         <v>2010</v>
       </c>
       <c r="D530" t="n">
-        <v>45420000</v>
+        <v>1673020000</v>
       </c>
       <c r="E530" t="n">
-        <v>10990000</v>
+        <v>861950000</v>
       </c>
       <c r="F530" t="n">
-        <v>1540000</v>
+        <v>57980000</v>
       </c>
     </row>
     <row r="531">
@@ -12224,13 +12224,13 @@
         <v>2011</v>
       </c>
       <c r="D531" t="n">
-        <v>20510000</v>
+        <v>1000660000</v>
       </c>
       <c r="E531" t="n">
-        <v>5590000</v>
+        <v>636070000</v>
       </c>
       <c r="F531" t="n">
-        <v>2190000</v>
+        <v>60090000</v>
       </c>
     </row>
     <row r="532">
@@ -12244,13 +12244,13 @@
         <v>2012</v>
       </c>
       <c r="D532" t="n">
-        <v>36230000</v>
+        <v>6655090000</v>
       </c>
       <c r="E532" t="n">
-        <v>10070000</v>
+        <v>486820000</v>
       </c>
       <c r="F532" t="n">
-        <v>5500000</v>
+        <v>107530000</v>
       </c>
     </row>
     <row r="533">
@@ -12264,13 +12264,13 @@
         <v>2013</v>
       </c>
       <c r="D533" t="n">
-        <v>470000</v>
+        <v>2227760000</v>
       </c>
       <c r="E533" t="n">
-        <v>2360000</v>
+        <v>1191840000</v>
       </c>
       <c r="F533" t="n">
-        <v>3110000</v>
+        <v>159950000</v>
       </c>
     </row>
     <row r="534">
@@ -12284,13 +12284,13 @@
         <v>2000</v>
       </c>
       <c r="D534" t="n">
-        <v>271550000</v>
+        <v>5808090000</v>
       </c>
       <c r="E534" t="n">
-        <v>664560000</v>
+        <v>5767390000</v>
       </c>
       <c r="F534" t="n">
-        <v>192710000</v>
+        <v>1938460000</v>
       </c>
     </row>
     <row r="535">
@@ -12304,13 +12304,13 @@
         <v>2001</v>
       </c>
       <c r="D535" t="n">
-        <v>703780000</v>
+        <v>6261190000</v>
       </c>
       <c r="E535" t="n">
-        <v>607560000</v>
+        <v>3983100000</v>
       </c>
       <c r="F535" t="n">
-        <v>220440000</v>
+        <v>2289890000</v>
       </c>
     </row>
     <row r="536">
@@ -12324,13 +12324,13 @@
         <v>2002</v>
       </c>
       <c r="D536" t="n">
-        <v>406660000</v>
+        <v>5147290000</v>
       </c>
       <c r="E536" t="n">
-        <v>935180000</v>
+        <v>7402920000</v>
       </c>
       <c r="F536" t="n">
-        <v>152520000</v>
+        <v>1958510000</v>
       </c>
     </row>
     <row r="537">
@@ -12344,13 +12344,13 @@
         <v>2003</v>
       </c>
       <c r="D537" t="n">
-        <v>504300000</v>
+        <v>4226530000</v>
       </c>
       <c r="E537" t="n">
-        <v>595830000</v>
+        <v>8572890000</v>
       </c>
       <c r="F537" t="n">
-        <v>107680000</v>
+        <v>1406930000</v>
       </c>
     </row>
     <row r="538">
@@ -12364,13 +12364,13 @@
         <v>2004</v>
       </c>
       <c r="D538" t="n">
-        <v>806800000</v>
+        <v>4185360000</v>
       </c>
       <c r="E538" t="n">
-        <v>1362950000</v>
+        <v>3851030000</v>
       </c>
       <c r="F538" t="n">
-        <v>78020000</v>
+        <v>949570000</v>
       </c>
     </row>
     <row r="539">
@@ -12384,13 +12384,13 @@
         <v>2005</v>
       </c>
       <c r="D539" t="n">
-        <v>467400000</v>
+        <v>3446270000</v>
       </c>
       <c r="E539" t="n">
-        <v>621150000</v>
+        <v>3218840000</v>
       </c>
       <c r="F539" t="n">
-        <v>88900000</v>
+        <v>1029080000</v>
       </c>
     </row>
     <row r="540">
@@ -12404,13 +12404,13 @@
         <v>2006</v>
       </c>
       <c r="D540" t="n">
-        <v>366430000</v>
+        <v>3898130000</v>
       </c>
       <c r="E540" t="n">
-        <v>313470000</v>
+        <v>2692330000</v>
       </c>
       <c r="F540" t="n">
-        <v>89490000</v>
+        <v>1375490000</v>
       </c>
     </row>
     <row r="541">
@@ -12424,13 +12424,13 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>288930000</v>
+        <v>3992060000</v>
       </c>
       <c r="E541" t="n">
-        <v>395630000</v>
+        <v>3186450000</v>
       </c>
       <c r="F541" t="n">
-        <v>63370000</v>
+        <v>1486780000</v>
       </c>
     </row>
     <row r="542">
@@ -12444,13 +12444,13 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>1057750000</v>
+        <v>4562650000</v>
       </c>
       <c r="E542" t="n">
-        <v>591500000</v>
+        <v>2972110000</v>
       </c>
       <c r="F542" t="n">
-        <v>88920000</v>
+        <v>1323850000</v>
       </c>
     </row>
     <row r="543">
@@ -12464,13 +12464,13 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>1880990000</v>
+        <v>4499590000</v>
       </c>
       <c r="E543" t="n">
-        <v>1002680000</v>
+        <v>4239200000</v>
       </c>
       <c r="F543" t="n">
-        <v>90050000</v>
+        <v>995940000</v>
       </c>
     </row>
     <row r="544">
@@ -12484,13 +12484,13 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>1673020000</v>
+        <v>5555020000</v>
       </c>
       <c r="E544" t="n">
-        <v>861950000</v>
+        <v>3006170000</v>
       </c>
       <c r="F544" t="n">
-        <v>57980000</v>
+        <v>534680000</v>
       </c>
     </row>
     <row r="545">
@@ -12504,13 +12504,13 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>1000660000</v>
+        <v>5136080000</v>
       </c>
       <c r="E545" t="n">
-        <v>636070000</v>
+        <v>3622550000</v>
       </c>
       <c r="F545" t="n">
-        <v>60090000</v>
+        <v>491560000</v>
       </c>
     </row>
     <row r="546">
@@ -12524,13 +12524,13 @@
         <v>2012</v>
       </c>
       <c r="D546" t="n">
-        <v>6655090000</v>
+        <v>4762320000</v>
       </c>
       <c r="E546" t="n">
-        <v>486820000</v>
+        <v>3970280000</v>
       </c>
       <c r="F546" t="n">
-        <v>107530000</v>
+        <v>537910000</v>
       </c>
     </row>
     <row r="547">
@@ -12544,13 +12544,13 @@
         <v>2013</v>
       </c>
       <c r="D547" t="n">
-        <v>2227760000</v>
+        <v>5324320000</v>
       </c>
       <c r="E547" t="n">
-        <v>1191840000</v>
+        <v>4324650000</v>
       </c>
       <c r="F547" t="n">
-        <v>159950000</v>
+        <v>526470000</v>
       </c>
     </row>
     <row r="548">
@@ -12564,13 +12564,13 @@
         <v>2000</v>
       </c>
       <c r="D548" t="n">
-        <v>5808090000</v>
+        <v>907920000</v>
       </c>
       <c r="E548" t="n">
-        <v>5767390000</v>
+        <v>1268230000</v>
       </c>
       <c r="F548" t="n">
-        <v>1938460000</v>
+        <v>612290000</v>
       </c>
     </row>
     <row r="549">
@@ -12584,13 +12584,13 @@
         <v>2001</v>
       </c>
       <c r="D549" t="n">
-        <v>6261190000</v>
+        <v>1956280000</v>
       </c>
       <c r="E549" t="n">
-        <v>3983100000</v>
+        <v>952790000</v>
       </c>
       <c r="F549" t="n">
-        <v>2289890000</v>
+        <v>668840000</v>
       </c>
     </row>
     <row r="550">
@@ -12604,13 +12604,13 @@
         <v>2002</v>
       </c>
       <c r="D550" t="n">
-        <v>5147290000</v>
+        <v>1308240000</v>
       </c>
       <c r="E550" t="n">
-        <v>7402920000</v>
+        <v>1404500000</v>
       </c>
       <c r="F550" t="n">
-        <v>1958510000</v>
+        <v>583470000</v>
       </c>
     </row>
     <row r="551">
@@ -12624,13 +12624,13 @@
         <v>2003</v>
       </c>
       <c r="D551" t="n">
-        <v>4226530000</v>
+        <v>4041820000</v>
       </c>
       <c r="E551" t="n">
-        <v>8572890000</v>
+        <v>1482350000</v>
       </c>
       <c r="F551" t="n">
-        <v>1406930000</v>
+        <v>548630000</v>
       </c>
     </row>
     <row r="552">
@@ -12644,13 +12644,13 @@
         <v>2004</v>
       </c>
       <c r="D552" t="n">
-        <v>4185360000</v>
+        <v>978450000</v>
       </c>
       <c r="E552" t="n">
-        <v>3851030000</v>
+        <v>1038700000</v>
       </c>
       <c r="F552" t="n">
-        <v>949570000</v>
+        <v>513440000</v>
       </c>
     </row>
     <row r="553">
@@ -12664,13 +12664,13 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>3446270000</v>
+        <v>1268080000</v>
       </c>
       <c r="E553" t="n">
-        <v>3218840000</v>
+        <v>2304780000</v>
       </c>
       <c r="F553" t="n">
-        <v>1029080000</v>
+        <v>507680000</v>
       </c>
     </row>
     <row r="554">
@@ -12684,13 +12684,13 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>3898130000</v>
+        <v>2191430000</v>
       </c>
       <c r="E554" t="n">
-        <v>2692330000</v>
+        <v>755040000</v>
       </c>
       <c r="F554" t="n">
-        <v>1375490000</v>
+        <v>490390000</v>
       </c>
     </row>
     <row r="555">
@@ -12704,13 +12704,13 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>3992060000</v>
+        <v>1879860000</v>
       </c>
       <c r="E555" t="n">
-        <v>3186450000</v>
+        <v>896010000</v>
       </c>
       <c r="F555" t="n">
-        <v>1486780000</v>
+        <v>568280000</v>
       </c>
     </row>
     <row r="556">
@@ -12724,13 +12724,13 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>4562650000</v>
+        <v>2105930000</v>
       </c>
       <c r="E556" t="n">
-        <v>2972110000</v>
+        <v>624680000</v>
       </c>
       <c r="F556" t="n">
-        <v>1323850000</v>
+        <v>563720000</v>
       </c>
     </row>
     <row r="557">
@@ -12744,13 +12744,13 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>4499590000</v>
+        <v>2624550000</v>
       </c>
       <c r="E557" t="n">
-        <v>4239200000</v>
+        <v>706440000</v>
       </c>
       <c r="F557" t="n">
-        <v>995940000</v>
+        <v>568680000</v>
       </c>
     </row>
     <row r="558">
@@ -12764,13 +12764,13 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>5555020000</v>
+        <v>2226750000</v>
       </c>
       <c r="E558" t="n">
-        <v>3006170000</v>
+        <v>836090000</v>
       </c>
       <c r="F558" t="n">
-        <v>534680000</v>
+        <v>559060000</v>
       </c>
     </row>
     <row r="559">
@@ -12784,13 +12784,13 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>5136080000</v>
+        <v>1192430000</v>
       </c>
       <c r="E559" t="n">
-        <v>3622550000</v>
+        <v>823330000</v>
       </c>
       <c r="F559" t="n">
-        <v>491560000</v>
+        <v>510430000</v>
       </c>
     </row>
     <row r="560">
@@ -12804,13 +12804,13 @@
         <v>2012</v>
       </c>
       <c r="D560" t="n">
-        <v>4762320000</v>
+        <v>3595070000</v>
       </c>
       <c r="E560" t="n">
-        <v>3970280000</v>
+        <v>1011770000</v>
       </c>
       <c r="F560" t="n">
-        <v>537910000</v>
+        <v>309140000</v>
       </c>
     </row>
     <row r="561">
@@ -12824,13 +12824,13 @@
         <v>2013</v>
       </c>
       <c r="D561" t="n">
-        <v>5324320000</v>
+        <v>2607720000</v>
       </c>
       <c r="E561" t="n">
-        <v>4324650000</v>
+        <v>1217120000</v>
       </c>
       <c r="F561" t="n">
-        <v>526470000</v>
+        <v>551620000</v>
       </c>
     </row>
     <row r="562">
@@ -12844,13 +12844,13 @@
         <v>2000</v>
       </c>
       <c r="D562" t="n">
-        <v>907920000</v>
+        <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>1268230000</v>
+        <v>50000</v>
       </c>
       <c r="F562" t="n">
-        <v>612290000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -12864,13 +12864,13 @@
         <v>2001</v>
       </c>
       <c r="D563" t="n">
-        <v>1956280000</v>
+        <v>0</v>
       </c>
       <c r="E563" t="n">
-        <v>952790000</v>
+        <v>0</v>
       </c>
       <c r="F563" t="n">
-        <v>668840000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -12884,13 +12884,13 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>1308240000</v>
+        <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>1404500000</v>
+        <v>890000</v>
       </c>
       <c r="F564" t="n">
-        <v>583470000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -12904,13 +12904,13 @@
         <v>2003</v>
       </c>
       <c r="D565" t="n">
-        <v>4041820000</v>
+        <v>0</v>
       </c>
       <c r="E565" t="n">
-        <v>1482350000</v>
+        <v>0</v>
       </c>
       <c r="F565" t="n">
-        <v>548630000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
@@ -12924,13 +12924,13 @@
         <v>2004</v>
       </c>
       <c r="D566" t="n">
-        <v>978450000</v>
+        <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>1038700000</v>
+        <v>230000</v>
       </c>
       <c r="F566" t="n">
-        <v>513440000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
@@ -12944,13 +12944,13 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>1268080000</v>
+        <v>0</v>
       </c>
       <c r="E567" t="n">
-        <v>2304780000</v>
+        <v>0</v>
       </c>
       <c r="F567" t="n">
-        <v>507680000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -12964,13 +12964,13 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>2191430000</v>
+        <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>755040000</v>
+        <v>0</v>
       </c>
       <c r="F568" t="n">
-        <v>490390000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -12984,13 +12984,13 @@
         <v>2007</v>
       </c>
       <c r="D569" t="n">
-        <v>1879860000</v>
+        <v>0</v>
       </c>
       <c r="E569" t="n">
-        <v>896010000</v>
+        <v>10530000</v>
       </c>
       <c r="F569" t="n">
-        <v>568280000</v>
+        <v>12680000</v>
       </c>
     </row>
     <row r="570">
@@ -13004,13 +13004,13 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>2105930000</v>
+        <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>624680000</v>
+        <v>0</v>
       </c>
       <c r="F570" t="n">
-        <v>563720000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="571">
@@ -13024,13 +13024,13 @@
         <v>2009</v>
       </c>
       <c r="D571" t="n">
-        <v>2624550000</v>
+        <v>0</v>
       </c>
       <c r="E571" t="n">
-        <v>706440000</v>
+        <v>1000000</v>
       </c>
       <c r="F571" t="n">
-        <v>568680000</v>
+        <v>740000</v>
       </c>
     </row>
     <row r="572">
@@ -13044,13 +13044,13 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>2226750000</v>
+        <v>2640000</v>
       </c>
       <c r="E572" t="n">
-        <v>836090000</v>
+        <v>340000</v>
       </c>
       <c r="F572" t="n">
-        <v>559060000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="573">
@@ -13064,13 +13064,13 @@
         <v>2011</v>
       </c>
       <c r="D573" t="n">
-        <v>1192430000</v>
+        <v>0</v>
       </c>
       <c r="E573" t="n">
-        <v>823330000</v>
+        <v>790000</v>
       </c>
       <c r="F573" t="n">
-        <v>510430000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="574">
@@ -13084,13 +13084,13 @@
         <v>2012</v>
       </c>
       <c r="D574" t="n">
-        <v>3595070000</v>
+        <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>1011770000</v>
+        <v>240000</v>
       </c>
       <c r="F574" t="n">
-        <v>309140000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="575">
@@ -13104,13 +13104,13 @@
         <v>2013</v>
       </c>
       <c r="D575" t="n">
-        <v>2607720000</v>
+        <v>0</v>
       </c>
       <c r="E575" t="n">
-        <v>1217120000</v>
+        <v>5010000</v>
       </c>
       <c r="F575" t="n">
-        <v>551620000</v>
+        <v>470000</v>
       </c>
     </row>
     <row r="576">
@@ -13127,10 +13127,10 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>50000</v>
+        <v>26370000</v>
       </c>
       <c r="F576" t="n">
-        <v>0</v>
+        <v>2420000</v>
       </c>
     </row>
     <row r="577">
@@ -13147,10 +13147,10 @@
         <v>0</v>
       </c>
       <c r="E577" t="n">
-        <v>0</v>
+        <v>94260000</v>
       </c>
       <c r="F577" t="n">
-        <v>0</v>
+        <v>34420000</v>
       </c>
     </row>
     <row r="578">
@@ -13164,13 +13164,13 @@
         <v>2002</v>
       </c>
       <c r="D578" t="n">
-        <v>0</v>
+        <v>19300000</v>
       </c>
       <c r="E578" t="n">
-        <v>890000</v>
+        <v>66000000</v>
       </c>
       <c r="F578" t="n">
-        <v>0</v>
+        <v>12660000</v>
       </c>
     </row>
     <row r="579">
@@ -13184,13 +13184,13 @@
         <v>2003</v>
       </c>
       <c r="D579" t="n">
-        <v>0</v>
+        <v>464360000</v>
       </c>
       <c r="E579" t="n">
-        <v>0</v>
+        <v>38880000</v>
       </c>
       <c r="F579" t="n">
-        <v>0</v>
+        <v>479610000</v>
       </c>
     </row>
     <row r="580">
@@ -13207,10 +13207,10 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>230000</v>
+        <v>104070000</v>
       </c>
       <c r="F580" t="n">
-        <v>0</v>
+        <v>94710000</v>
       </c>
     </row>
     <row r="581">
@@ -13224,13 +13224,13 @@
         <v>2005</v>
       </c>
       <c r="D581" t="n">
-        <v>0</v>
+        <v>1246770000</v>
       </c>
       <c r="E581" t="n">
-        <v>0</v>
+        <v>745160000</v>
       </c>
       <c r="F581" t="n">
-        <v>0</v>
+        <v>78900000</v>
       </c>
     </row>
     <row r="582">
@@ -13244,13 +13244,13 @@
         <v>2006</v>
       </c>
       <c r="D582" t="n">
-        <v>0</v>
+        <v>2840000</v>
       </c>
       <c r="E582" t="n">
-        <v>0</v>
+        <v>138000000</v>
       </c>
       <c r="F582" t="n">
-        <v>0</v>
+        <v>78790000</v>
       </c>
     </row>
     <row r="583">
@@ -13264,13 +13264,13 @@
         <v>2007</v>
       </c>
       <c r="D583" t="n">
-        <v>0</v>
+        <v>16410000</v>
       </c>
       <c r="E583" t="n">
-        <v>10530000</v>
+        <v>111210000</v>
       </c>
       <c r="F583" t="n">
-        <v>12680000</v>
+        <v>12010000</v>
       </c>
     </row>
     <row r="584">
@@ -13287,10 +13287,10 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>0</v>
+        <v>207600000</v>
       </c>
       <c r="F584" t="n">
-        <v>10000</v>
+        <v>151050000</v>
       </c>
     </row>
     <row r="585">
@@ -13304,13 +13304,13 @@
         <v>2009</v>
       </c>
       <c r="D585" t="n">
-        <v>0</v>
+        <v>2110000</v>
       </c>
       <c r="E585" t="n">
-        <v>1000000</v>
+        <v>112360000</v>
       </c>
       <c r="F585" t="n">
-        <v>740000</v>
+        <v>62300000</v>
       </c>
     </row>
     <row r="586">
@@ -13324,13 +13324,13 @@
         <v>2010</v>
       </c>
       <c r="D586" t="n">
-        <v>2640000</v>
+        <v>650000</v>
       </c>
       <c r="E586" t="n">
-        <v>340000</v>
+        <v>976010000</v>
       </c>
       <c r="F586" t="n">
-        <v>100000</v>
+        <v>66120000</v>
       </c>
     </row>
     <row r="587">
@@ -13347,10 +13347,10 @@
         <v>0</v>
       </c>
       <c r="E587" t="n">
-        <v>790000</v>
+        <v>52490000</v>
       </c>
       <c r="F587" t="n">
-        <v>400000</v>
+        <v>72550000</v>
       </c>
     </row>
     <row r="588">
@@ -13364,13 +13364,13 @@
         <v>2012</v>
       </c>
       <c r="D588" t="n">
-        <v>0</v>
+        <v>2180000</v>
       </c>
       <c r="E588" t="n">
-        <v>240000</v>
+        <v>10700000</v>
       </c>
       <c r="F588" t="n">
-        <v>240000</v>
+        <v>4310000</v>
       </c>
     </row>
     <row r="589">
@@ -13384,13 +13384,13 @@
         <v>2013</v>
       </c>
       <c r="D589" t="n">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="E589" t="n">
-        <v>5010000</v>
+        <v>10790000</v>
       </c>
       <c r="F589" t="n">
-        <v>470000</v>
+        <v>3790000</v>
       </c>
     </row>
     <row r="590">
@@ -13407,10 +13407,10 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>26370000</v>
+        <v>430000</v>
       </c>
       <c r="F590" t="n">
-        <v>2420000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="591">
@@ -13427,10 +13427,10 @@
         <v>0</v>
       </c>
       <c r="E591" t="n">
-        <v>94260000</v>
+        <v>470000</v>
       </c>
       <c r="F591" t="n">
-        <v>34420000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
@@ -13444,13 +13444,13 @@
         <v>2002</v>
       </c>
       <c r="D592" t="n">
-        <v>19300000</v>
+        <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>66000000</v>
+        <v>430000</v>
       </c>
       <c r="F592" t="n">
-        <v>12660000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
@@ -13464,13 +13464,13 @@
         <v>2003</v>
       </c>
       <c r="D593" t="n">
-        <v>464360000</v>
+        <v>0</v>
       </c>
       <c r="E593" t="n">
-        <v>38880000</v>
+        <v>0</v>
       </c>
       <c r="F593" t="n">
-        <v>479610000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
@@ -13487,10 +13487,10 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>104070000</v>
+        <v>400000</v>
       </c>
       <c r="F594" t="n">
-        <v>94710000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="595">
@@ -13504,13 +13504,13 @@
         <v>2005</v>
       </c>
       <c r="D595" t="n">
-        <v>1246770000</v>
+        <v>0</v>
       </c>
       <c r="E595" t="n">
-        <v>745160000</v>
+        <v>400000</v>
       </c>
       <c r="F595" t="n">
-        <v>78900000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="596">
@@ -13524,13 +13524,13 @@
         <v>2006</v>
       </c>
       <c r="D596" t="n">
-        <v>2840000</v>
+        <v>10550000</v>
       </c>
       <c r="E596" t="n">
-        <v>138000000</v>
+        <v>19840000</v>
       </c>
       <c r="F596" t="n">
-        <v>78790000</v>
+        <v>8370000</v>
       </c>
     </row>
     <row r="597">
@@ -13544,13 +13544,13 @@
         <v>2007</v>
       </c>
       <c r="D597" t="n">
-        <v>16410000</v>
+        <v>0</v>
       </c>
       <c r="E597" t="n">
-        <v>111210000</v>
+        <v>370000</v>
       </c>
       <c r="F597" t="n">
-        <v>12010000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="598">
@@ -13564,13 +13564,13 @@
         <v>2008</v>
       </c>
       <c r="D598" t="n">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="E598" t="n">
-        <v>207600000</v>
+        <v>190000</v>
       </c>
       <c r="F598" t="n">
-        <v>151050000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="599">
@@ -13584,13 +13584,13 @@
         <v>2009</v>
       </c>
       <c r="D599" t="n">
-        <v>2110000</v>
+        <v>10000</v>
       </c>
       <c r="E599" t="n">
-        <v>112360000</v>
+        <v>550000</v>
       </c>
       <c r="F599" t="n">
-        <v>62300000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="600">
@@ -13604,13 +13604,13 @@
         <v>2010</v>
       </c>
       <c r="D600" t="n">
-        <v>650000</v>
+        <v>10400000</v>
       </c>
       <c r="E600" t="n">
-        <v>976010000</v>
+        <v>360000</v>
       </c>
       <c r="F600" t="n">
-        <v>66120000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="601">
@@ -13624,13 +13624,13 @@
         <v>2011</v>
       </c>
       <c r="D601" t="n">
-        <v>0</v>
+        <v>5460000</v>
       </c>
       <c r="E601" t="n">
-        <v>52490000</v>
+        <v>360000</v>
       </c>
       <c r="F601" t="n">
-        <v>72550000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="602">
@@ -13644,13 +13644,13 @@
         <v>2012</v>
       </c>
       <c r="D602" t="n">
-        <v>2180000</v>
+        <v>7270000</v>
       </c>
       <c r="E602" t="n">
-        <v>10700000</v>
+        <v>180000</v>
       </c>
       <c r="F602" t="n">
-        <v>4310000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="603">
@@ -13664,13 +13664,13 @@
         <v>2013</v>
       </c>
       <c r="D603" t="n">
-        <v>60000</v>
+        <v>6090000</v>
       </c>
       <c r="E603" t="n">
-        <v>10790000</v>
+        <v>1170000</v>
       </c>
       <c r="F603" t="n">
-        <v>3790000</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="604">
@@ -13684,13 +13684,13 @@
         <v>2000</v>
       </c>
       <c r="D604" t="n">
-        <v>0</v>
+        <v>132330000</v>
       </c>
       <c r="E604" t="n">
-        <v>430000</v>
+        <v>206140000</v>
       </c>
       <c r="F604" t="n">
-        <v>30000</v>
+        <v>111900000</v>
       </c>
     </row>
     <row r="605">
@@ -13704,13 +13704,13 @@
         <v>2001</v>
       </c>
       <c r="D605" t="n">
-        <v>0</v>
+        <v>99080000</v>
       </c>
       <c r="E605" t="n">
-        <v>470000</v>
+        <v>176890000</v>
       </c>
       <c r="F605" t="n">
-        <v>0</v>
+        <v>108210000</v>
       </c>
     </row>
     <row r="606">
@@ -13724,13 +13724,13 @@
         <v>2002</v>
       </c>
       <c r="D606" t="n">
-        <v>0</v>
+        <v>123400000</v>
       </c>
       <c r="E606" t="n">
-        <v>430000</v>
+        <v>158750000</v>
       </c>
       <c r="F606" t="n">
-        <v>0</v>
+        <v>90760000</v>
       </c>
     </row>
     <row r="607">
@@ -13744,13 +13744,13 @@
         <v>2003</v>
       </c>
       <c r="D607" t="n">
-        <v>0</v>
+        <v>167430000</v>
       </c>
       <c r="E607" t="n">
-        <v>0</v>
+        <v>158990000</v>
       </c>
       <c r="F607" t="n">
-        <v>0</v>
+        <v>73230000</v>
       </c>
     </row>
     <row r="608">
@@ -13764,13 +13764,13 @@
         <v>2004</v>
       </c>
       <c r="D608" t="n">
-        <v>0</v>
+        <v>153160000</v>
       </c>
       <c r="E608" t="n">
-        <v>400000</v>
+        <v>161730000</v>
       </c>
       <c r="F608" t="n">
-        <v>300000</v>
+        <v>62360000</v>
       </c>
     </row>
     <row r="609">
@@ -13784,13 +13784,13 @@
         <v>2005</v>
       </c>
       <c r="D609" t="n">
-        <v>0</v>
+        <v>122750000</v>
       </c>
       <c r="E609" t="n">
-        <v>400000</v>
+        <v>274600000</v>
       </c>
       <c r="F609" t="n">
-        <v>50000</v>
+        <v>59600000</v>
       </c>
     </row>
     <row r="610">
@@ -13804,13 +13804,13 @@
         <v>2006</v>
       </c>
       <c r="D610" t="n">
-        <v>10550000</v>
+        <v>46180000</v>
       </c>
       <c r="E610" t="n">
-        <v>19840000</v>
+        <v>124840000</v>
       </c>
       <c r="F610" t="n">
-        <v>8370000</v>
+        <v>47540000</v>
       </c>
     </row>
     <row r="611">
@@ -13824,13 +13824,13 @@
         <v>2007</v>
       </c>
       <c r="D611" t="n">
-        <v>0</v>
+        <v>43500000</v>
       </c>
       <c r="E611" t="n">
-        <v>370000</v>
+        <v>156540000</v>
       </c>
       <c r="F611" t="n">
-        <v>30000</v>
+        <v>42350000</v>
       </c>
     </row>
     <row r="612">
@@ -13844,13 +13844,13 @@
         <v>2008</v>
       </c>
       <c r="D612" t="n">
-        <v>80000</v>
+        <v>228690000</v>
       </c>
       <c r="E612" t="n">
-        <v>190000</v>
+        <v>326130000</v>
       </c>
       <c r="F612" t="n">
-        <v>20000</v>
+        <v>39720000</v>
       </c>
     </row>
     <row r="613">
@@ -13864,13 +13864,13 @@
         <v>2009</v>
       </c>
       <c r="D613" t="n">
-        <v>10000</v>
+        <v>117290000</v>
       </c>
       <c r="E613" t="n">
-        <v>550000</v>
+        <v>90190000</v>
       </c>
       <c r="F613" t="n">
-        <v>50000</v>
+        <v>33610000</v>
       </c>
     </row>
     <row r="614">
@@ -13884,13 +13884,13 @@
         <v>2010</v>
       </c>
       <c r="D614" t="n">
-        <v>10400000</v>
+        <v>610500000</v>
       </c>
       <c r="E614" t="n">
-        <v>360000</v>
+        <v>76180000</v>
       </c>
       <c r="F614" t="n">
-        <v>60000</v>
+        <v>29810000</v>
       </c>
     </row>
     <row r="615">
@@ -13904,13 +13904,13 @@
         <v>2011</v>
       </c>
       <c r="D615" t="n">
-        <v>5460000</v>
+        <v>310010000</v>
       </c>
       <c r="E615" t="n">
-        <v>360000</v>
+        <v>135620000</v>
       </c>
       <c r="F615" t="n">
-        <v>80000</v>
+        <v>40030000</v>
       </c>
     </row>
     <row r="616">
@@ -13924,13 +13924,13 @@
         <v>2012</v>
       </c>
       <c r="D616" t="n">
-        <v>7270000</v>
+        <v>211640000</v>
       </c>
       <c r="E616" t="n">
-        <v>180000</v>
+        <v>112250000</v>
       </c>
       <c r="F616" t="n">
-        <v>310000</v>
+        <v>36060000</v>
       </c>
     </row>
     <row r="617">
@@ -13944,13 +13944,13 @@
         <v>2013</v>
       </c>
       <c r="D617" t="n">
-        <v>6090000</v>
+        <v>260160000</v>
       </c>
       <c r="E617" t="n">
-        <v>1170000</v>
+        <v>121270000</v>
       </c>
       <c r="F617" t="n">
-        <v>660000</v>
+        <v>49480000</v>
       </c>
     </row>
     <row r="618">
@@ -13964,13 +13964,13 @@
         <v>2000</v>
       </c>
       <c r="D618" t="n">
-        <v>132330000</v>
+        <v>65720000</v>
       </c>
       <c r="E618" t="n">
-        <v>206140000</v>
+        <v>180790000</v>
       </c>
       <c r="F618" t="n">
-        <v>111900000</v>
+        <v>120330000</v>
       </c>
     </row>
     <row r="619">
@@ -13984,13 +13984,13 @@
         <v>2001</v>
       </c>
       <c r="D619" t="n">
-        <v>99080000</v>
+        <v>31240000</v>
       </c>
       <c r="E619" t="n">
-        <v>176890000</v>
+        <v>200950000</v>
       </c>
       <c r="F619" t="n">
-        <v>108210000</v>
+        <v>102580000</v>
       </c>
     </row>
     <row r="620">
@@ -14004,13 +14004,13 @@
         <v>2002</v>
       </c>
       <c r="D620" t="n">
-        <v>123400000</v>
+        <v>686140000</v>
       </c>
       <c r="E620" t="n">
-        <v>158750000</v>
+        <v>503170000</v>
       </c>
       <c r="F620" t="n">
-        <v>90760000</v>
+        <v>203010000</v>
       </c>
     </row>
     <row r="621">
@@ -14024,13 +14024,13 @@
         <v>2003</v>
       </c>
       <c r="D621" t="n">
-        <v>167430000</v>
+        <v>59300000</v>
       </c>
       <c r="E621" t="n">
-        <v>158990000</v>
+        <v>262390000</v>
       </c>
       <c r="F621" t="n">
-        <v>73230000</v>
+        <v>81880000</v>
       </c>
     </row>
     <row r="622">
@@ -14044,13 +14044,13 @@
         <v>2004</v>
       </c>
       <c r="D622" t="n">
-        <v>153160000</v>
+        <v>23840000</v>
       </c>
       <c r="E622" t="n">
-        <v>161730000</v>
+        <v>121810000</v>
       </c>
       <c r="F622" t="n">
-        <v>62360000</v>
+        <v>44490000</v>
       </c>
     </row>
     <row r="623">
@@ -14064,13 +14064,13 @@
         <v>2005</v>
       </c>
       <c r="D623" t="n">
-        <v>122750000</v>
+        <v>0</v>
       </c>
       <c r="E623" t="n">
-        <v>274600000</v>
+        <v>17910000</v>
       </c>
       <c r="F623" t="n">
-        <v>59600000</v>
+        <v>4730000</v>
       </c>
     </row>
     <row r="624">
@@ -14084,13 +14084,13 @@
         <v>2006</v>
       </c>
       <c r="D624" t="n">
-        <v>46180000</v>
+        <v>0</v>
       </c>
       <c r="E624" t="n">
-        <v>124840000</v>
+        <v>16740000</v>
       </c>
       <c r="F624" t="n">
-        <v>47540000</v>
+        <v>5790000</v>
       </c>
     </row>
     <row r="625">
@@ -14104,13 +14104,13 @@
         <v>2007</v>
       </c>
       <c r="D625" t="n">
-        <v>43500000</v>
+        <v>0</v>
       </c>
       <c r="E625" t="n">
-        <v>156540000</v>
+        <v>90860000</v>
       </c>
       <c r="F625" t="n">
-        <v>42350000</v>
+        <v>35800000</v>
       </c>
     </row>
     <row r="626">
@@ -14124,13 +14124,13 @@
         <v>2008</v>
       </c>
       <c r="D626" t="n">
-        <v>228690000</v>
+        <v>244560000</v>
       </c>
       <c r="E626" t="n">
-        <v>326130000</v>
+        <v>671360000</v>
       </c>
       <c r="F626" t="n">
-        <v>39720000</v>
+        <v>156430000</v>
       </c>
     </row>
     <row r="627">
@@ -14144,13 +14144,13 @@
         <v>2009</v>
       </c>
       <c r="D627" t="n">
-        <v>117290000</v>
+        <v>167620000</v>
       </c>
       <c r="E627" t="n">
-        <v>90190000</v>
+        <v>929230000</v>
       </c>
       <c r="F627" t="n">
-        <v>33610000</v>
+        <v>520010000</v>
       </c>
     </row>
     <row r="628">
@@ -14164,13 +14164,13 @@
         <v>2010</v>
       </c>
       <c r="D628" t="n">
-        <v>610500000</v>
+        <v>52200000</v>
       </c>
       <c r="E628" t="n">
-        <v>76180000</v>
+        <v>130870000</v>
       </c>
       <c r="F628" t="n">
-        <v>29810000</v>
+        <v>71850000</v>
       </c>
     </row>
     <row r="629">
@@ -14184,13 +14184,13 @@
         <v>2011</v>
       </c>
       <c r="D629" t="n">
-        <v>310010000</v>
+        <v>19450000</v>
       </c>
       <c r="E629" t="n">
-        <v>135620000</v>
+        <v>72330000</v>
       </c>
       <c r="F629" t="n">
-        <v>40030000</v>
+        <v>20180000</v>
       </c>
     </row>
     <row r="630">
@@ -14204,13 +14204,13 @@
         <v>2012</v>
       </c>
       <c r="D630" t="n">
-        <v>211640000</v>
+        <v>51380000</v>
       </c>
       <c r="E630" t="n">
-        <v>112250000</v>
+        <v>1469740000</v>
       </c>
       <c r="F630" t="n">
-        <v>36060000</v>
+        <v>-7720000</v>
       </c>
     </row>
     <row r="631">
@@ -14224,13 +14224,13 @@
         <v>2013</v>
       </c>
       <c r="D631" t="n">
-        <v>260160000</v>
+        <v>86510000</v>
       </c>
       <c r="E631" t="n">
-        <v>121270000</v>
+        <v>236470000</v>
       </c>
       <c r="F631" t="n">
-        <v>49480000</v>
+        <v>20980000</v>
       </c>
     </row>
     <row r="632">
